--- a/1/5/Indicadores macroeconómicos trimestrales 1996 a 2021 - Trimestral.xlsx
+++ b/1/5/Indicadores macroeconómicos trimestrales 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Serie</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2874,7 +2877,7 @@
         <v>28196.1</v>
       </c>
       <c r="E50">
-        <v>28617.4</v>
+        <v>28608.8</v>
       </c>
       <c r="F50">
         <v>3648.5</v>
@@ -2918,7 +2921,7 @@
         <v>28946.5</v>
       </c>
       <c r="E51">
-        <v>28613.4</v>
+        <v>28626.1</v>
       </c>
       <c r="F51">
         <v>3571.5</v>
@@ -2962,7 +2965,7 @@
         <v>27351.7</v>
       </c>
       <c r="E52">
-        <v>28392.6</v>
+        <v>28386.3</v>
       </c>
       <c r="F52">
         <v>3331</v>
@@ -3006,7 +3009,7 @@
         <v>29316.5</v>
       </c>
       <c r="E53">
-        <v>28123.4</v>
+        <v>28115.5</v>
       </c>
       <c r="F53">
         <v>3331.4</v>
@@ -3050,7 +3053,7 @@
         <v>27393.1</v>
       </c>
       <c r="E54">
-        <v>27882</v>
+        <v>27879.2</v>
       </c>
       <c r="F54">
         <v>3254.7</v>
@@ -3094,7 +3097,7 @@
         <v>27985.1</v>
       </c>
       <c r="E55">
-        <v>27705.7</v>
+        <v>27710.3</v>
       </c>
       <c r="F55">
         <v>3261.1</v>
@@ -3138,7 +3141,7 @@
         <v>27051.3</v>
       </c>
       <c r="E56">
-        <v>28024.9</v>
+        <v>28020.6</v>
       </c>
       <c r="F56">
         <v>3148.8</v>
@@ -3182,7 +3185,7 @@
         <v>29600.9</v>
       </c>
       <c r="E57">
-        <v>28382.4</v>
+        <v>28376.5</v>
       </c>
       <c r="F57">
         <v>3382.6</v>
@@ -3226,7 +3229,7 @@
         <v>27890.1</v>
       </c>
       <c r="E58">
-        <v>28473.6</v>
+        <v>28471</v>
       </c>
       <c r="F58">
         <v>3109.9</v>
@@ -3270,7 +3273,7 @@
         <v>29774.9</v>
       </c>
       <c r="E59">
-        <v>29439</v>
+        <v>29442.5</v>
       </c>
       <c r="F59">
         <v>3393.4</v>
@@ -3314,7 +3317,7 @@
         <v>29082.7</v>
       </c>
       <c r="E60">
-        <v>30136.4</v>
+        <v>30132.3</v>
       </c>
       <c r="F60">
         <v>3366.2</v>
@@ -3358,7 +3361,7 @@
         <v>31829.9</v>
       </c>
       <c r="E61">
-        <v>30516</v>
+        <v>30509.6</v>
       </c>
       <c r="F61">
         <v>3604.1</v>
@@ -3402,7 +3405,7 @@
         <v>30471.5</v>
       </c>
       <c r="E62">
-        <v>30895.9</v>
+        <v>30891.4</v>
       </c>
       <c r="F62">
         <v>3594.3</v>
@@ -3446,7 +3449,7 @@
         <v>31679.6</v>
       </c>
       <c r="E63">
-        <v>31315.2</v>
+        <v>31321.3</v>
       </c>
       <c r="F63">
         <v>3716.4</v>
@@ -3490,7 +3493,7 @@
         <v>30310.4</v>
       </c>
       <c r="E64">
-        <v>31440.6</v>
+        <v>31435.1</v>
       </c>
       <c r="F64">
         <v>3558.4</v>
@@ -3534,7 +3537,7 @@
         <v>33362.3</v>
       </c>
       <c r="E65">
-        <v>32050.6</v>
+        <v>32044.5</v>
       </c>
       <c r="F65">
         <v>3667.1</v>
@@ -3578,7 +3581,7 @@
         <v>32030.1</v>
       </c>
       <c r="E66">
-        <v>32602.7</v>
+        <v>32597.1</v>
       </c>
       <c r="F66">
         <v>3754.8</v>
@@ -3622,7 +3625,7 @@
         <v>33423</v>
       </c>
       <c r="E67">
-        <v>33081.4</v>
+        <v>33088.9</v>
       </c>
       <c r="F67">
         <v>3843</v>
@@ -3666,7 +3669,7 @@
         <v>32012.3</v>
       </c>
       <c r="E68">
-        <v>33299.6</v>
+        <v>33294.3</v>
       </c>
       <c r="F68">
         <v>3585.6</v>
@@ -3710,7 +3713,7 @@
         <v>35050.6</v>
       </c>
       <c r="E69">
-        <v>33540.7</v>
+        <v>33533.5</v>
       </c>
       <c r="F69">
         <v>3837.1</v>
@@ -3754,7 +3757,7 @@
         <v>33190.5</v>
       </c>
       <c r="E70">
-        <v>33929.4</v>
+        <v>33923.7</v>
       </c>
       <c r="F70">
         <v>3753.1</v>
@@ -3798,7 +3801,7 @@
         <v>34829.8</v>
       </c>
       <c r="E71">
-        <v>34436.2</v>
+        <v>34447.6</v>
       </c>
       <c r="F71">
         <v>3957.3</v>
@@ -3842,7 +3845,7 @@
         <v>33419.3</v>
       </c>
       <c r="E72">
-        <v>34749.6</v>
+        <v>34741.9</v>
       </c>
       <c r="F72">
         <v>3714.6</v>
@@ -3886,7 +3889,7 @@
         <v>36436.6</v>
       </c>
       <c r="E73">
-        <v>34824.2</v>
+        <v>34815.5</v>
       </c>
       <c r="F73">
         <v>3900.8</v>
@@ -3930,7 +3933,7 @@
         <v>34129.9</v>
       </c>
       <c r="E74">
-        <v>34872.8</v>
+        <v>34867.3</v>
       </c>
       <c r="F74">
         <v>3775.6</v>
@@ -3974,7 +3977,7 @@
         <v>35338</v>
       </c>
       <c r="E75">
-        <v>35016.6</v>
+        <v>35031</v>
       </c>
       <c r="F75">
         <v>3874.8</v>
@@ -4018,7 +4021,7 @@
         <v>33757</v>
       </c>
       <c r="E76">
-        <v>35013.4</v>
+        <v>35002.3</v>
       </c>
       <c r="F76">
         <v>3650.5</v>
@@ -4062,7 +4065,7 @@
         <v>37087.3</v>
       </c>
       <c r="E77">
-        <v>35415.2</v>
+        <v>35405.8</v>
       </c>
       <c r="F77">
         <v>3915.9</v>
@@ -4106,7 +4109,7 @@
         <v>34905</v>
       </c>
       <c r="E78">
-        <v>35504.7</v>
+        <v>35499.5</v>
       </c>
       <c r="F78">
         <v>3736.6</v>
@@ -4150,7 +4153,7 @@
         <v>36188.6</v>
       </c>
       <c r="E79">
-        <v>35947.5</v>
+        <v>35964.7</v>
       </c>
       <c r="F79">
         <v>3907.3</v>
@@ -4194,7 +4197,7 @@
         <v>34529.9</v>
       </c>
       <c r="E80">
-        <v>35843.4</v>
+        <v>35830</v>
       </c>
       <c r="F80">
         <v>3686</v>
@@ -4238,7 +4241,7 @@
         <v>37921</v>
       </c>
       <c r="E81">
-        <v>36192</v>
+        <v>36180.5</v>
       </c>
       <c r="F81">
         <v>3916.9</v>
@@ -4282,7 +4285,7 @@
         <v>35940.9</v>
       </c>
       <c r="E82">
-        <v>36423.9</v>
+        <v>36417.8</v>
       </c>
       <c r="F82">
         <v>3789.5</v>
@@ -4326,7 +4329,7 @@
         <v>36647</v>
       </c>
       <c r="E83">
-        <v>36320.1</v>
+        <v>36341.3</v>
       </c>
       <c r="F83">
         <v>3792</v>
@@ -4370,7 +4373,7 @@
         <v>35144.5</v>
       </c>
       <c r="E84">
-        <v>36491.8</v>
+        <v>36473.4</v>
       </c>
       <c r="F84">
         <v>3635.2</v>
@@ -4414,7 +4417,7 @@
         <v>38268.4</v>
       </c>
       <c r="E85">
-        <v>36580.2</v>
+        <v>36568.9</v>
       </c>
       <c r="F85">
         <v>3868.1</v>
@@ -4458,7 +4461,7 @@
         <v>35802.4</v>
       </c>
       <c r="E86">
-        <v>36270.3</v>
+        <v>36267.9</v>
       </c>
       <c r="F86">
         <v>3775.3</v>
@@ -4502,7 +4505,7 @@
         <v>36796.9</v>
       </c>
       <c r="E87">
-        <v>36624.2</v>
+        <v>36646</v>
       </c>
       <c r="F87">
         <v>3791.8</v>
@@ -4546,7 +4549,7 @@
         <v>35812.9</v>
       </c>
       <c r="E88">
-        <v>37324.5</v>
+        <v>37303.2</v>
       </c>
       <c r="F88">
         <v>3709.9</v>
@@ -4590,7 +4593,7 @@
         <v>39318</v>
       </c>
       <c r="E89">
-        <v>37647.7</v>
+        <v>37635.1</v>
       </c>
       <c r="F89">
         <v>3969.6</v>
@@ -4634,7 +4637,7 @@
         <v>37401.4</v>
       </c>
       <c r="E90">
-        <v>38049.7</v>
+        <v>38054.8</v>
       </c>
       <c r="F90">
         <v>3898.5</v>
@@ -4678,7 +4681,7 @@
         <v>38607.9</v>
       </c>
       <c r="E91">
-        <v>38368.9</v>
+        <v>38386.3</v>
       </c>
       <c r="F91">
         <v>4086.5</v>
@@ -4722,7 +4725,7 @@
         <v>36671.5</v>
       </c>
       <c r="E92">
-        <v>38300</v>
+        <v>38272.3</v>
       </c>
       <c r="F92">
         <v>3740.3</v>
@@ -4766,7 +4769,7 @@
         <v>40535.9</v>
       </c>
       <c r="E93">
-        <v>38715.9</v>
+        <v>38706.1</v>
       </c>
       <c r="F93">
         <v>4097.4</v>
@@ -4810,7 +4813,7 @@
         <v>37818.3</v>
       </c>
       <c r="E94">
-        <v>38588.1</v>
+        <v>38598.5</v>
       </c>
       <c r="F94">
         <v>3958.6</v>
@@ -4854,7 +4857,7 @@
         <v>39177.3</v>
       </c>
       <c r="E95">
-        <v>38999.3</v>
+        <v>39019.2</v>
       </c>
       <c r="F95">
         <v>4036.6</v>
@@ -4898,7 +4901,7 @@
         <v>37919.7</v>
       </c>
       <c r="E96">
-        <v>39366.5</v>
+        <v>39330.9</v>
       </c>
       <c r="F96">
         <v>3856.5</v>
@@ -4942,7 +4945,7 @@
         <v>39744.7</v>
       </c>
       <c r="E97">
-        <v>37826.3</v>
+        <v>37817.8</v>
       </c>
       <c r="F97">
         <v>4033.2</v>
@@ -4986,7 +4989,7 @@
         <v>37884.5</v>
       </c>
       <c r="E98">
-        <v>38541</v>
+        <v>38551.6</v>
       </c>
       <c r="F98">
         <v>3975</v>
@@ -5030,7 +5033,7 @@
         <v>33595.1</v>
       </c>
       <c r="E99">
-        <v>33655.6</v>
+        <v>33665.2</v>
       </c>
       <c r="F99">
         <v>3558.4</v>
@@ -5074,7 +5077,7 @@
         <v>34507.4</v>
       </c>
       <c r="E100">
-        <v>35527.9</v>
+        <v>35492.8</v>
       </c>
       <c r="F100">
         <v>3694.9</v>
@@ -5118,7 +5121,7 @@
         <v>39746.9</v>
       </c>
       <c r="E101">
-        <v>37792.1</v>
+        <v>37787.9</v>
       </c>
       <c r="F101">
         <v>4173.5</v>
@@ -5153,43 +5156,87 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>267704.3</v>
+        <v>268019.7</v>
       </c>
       <c r="C102">
-        <v>56204.9</v>
+        <v>56433.4</v>
       </c>
       <c r="D102">
-        <v>38012</v>
+        <v>38075.6</v>
       </c>
       <c r="E102">
-        <v>38997.7</v>
+        <v>39059.8</v>
       </c>
       <c r="F102">
-        <v>4056.1</v>
+        <v>4087.3</v>
       </c>
       <c r="G102">
-        <v>3602.5</v>
+        <v>3600.4</v>
       </c>
       <c r="H102">
-        <v>39238.5</v>
+        <v>39367.9</v>
       </c>
       <c r="I102">
-        <v>29558.3</v>
+        <v>29624.4</v>
       </c>
       <c r="J102">
-        <v>7753.4</v>
+        <v>7786.9</v>
       </c>
       <c r="K102">
         <v>20.7</v>
       </c>
       <c r="L102">
-        <v>10976.4</v>
+        <v>10937.2</v>
       </c>
       <c r="M102">
-        <v>12243</v>
+        <v>12265.4</v>
       </c>
       <c r="N102">
-        <v>123.7</v>
+        <v>125.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103">
+        <v>292467.7</v>
+      </c>
+      <c r="C103">
+        <v>57426.7</v>
+      </c>
+      <c r="D103">
+        <v>39676.6</v>
+      </c>
+      <c r="E103">
+        <v>39460.4</v>
+      </c>
+      <c r="F103">
+        <v>4145.2</v>
+      </c>
+      <c r="G103">
+        <v>3775.5</v>
+      </c>
+      <c r="H103">
+        <v>41666.6</v>
+      </c>
+      <c r="I103">
+        <v>32833.5</v>
+      </c>
+      <c r="J103">
+        <v>8217.6</v>
+      </c>
+      <c r="K103">
+        <v>21</v>
+      </c>
+      <c r="L103">
+        <v>10700.1</v>
+      </c>
+      <c r="M103">
+        <v>12670.9</v>
+      </c>
+      <c r="N103">
+        <v>130.1</v>
       </c>
     </row>
   </sheetData>
